--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>107.5762443333333</v>
+        <v>0.1979736666666666</v>
       </c>
       <c r="H2">
-        <v>322.728733</v>
+        <v>0.5939209999999999</v>
       </c>
       <c r="I2">
-        <v>0.4573526774733012</v>
+        <v>0.001485174276250702</v>
       </c>
       <c r="J2">
-        <v>0.4573526774733012</v>
+        <v>0.001485174276250702</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>10644.3169570069</v>
+        <v>33.28131891988021</v>
       </c>
       <c r="R2">
-        <v>95798.85261306209</v>
+        <v>299.5318702789219</v>
       </c>
       <c r="S2">
-        <v>0.09595303504539131</v>
+        <v>0.0004432030725273633</v>
       </c>
       <c r="T2">
-        <v>0.09595303504539132</v>
+        <v>0.0004432030725273634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>107.5762443333333</v>
+        <v>0.1979736666666666</v>
       </c>
       <c r="H3">
-        <v>322.728733</v>
+        <v>0.5939209999999999</v>
       </c>
       <c r="I3">
-        <v>0.4573526774733012</v>
+        <v>0.001485174276250702</v>
       </c>
       <c r="J3">
-        <v>0.4573526774733012</v>
+        <v>0.001485174276250702</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>17535.59863593425</v>
+        <v>32.27094216446077</v>
       </c>
       <c r="R3">
-        <v>157820.3877234083</v>
+        <v>290.438479480147</v>
       </c>
       <c r="S3">
-        <v>0.1580743900479311</v>
+        <v>0.0004297480143462215</v>
       </c>
       <c r="T3">
-        <v>0.1580743900479311</v>
+        <v>0.0004297480143462215</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>107.5762443333333</v>
+        <v>0.1979736666666666</v>
       </c>
       <c r="H4">
-        <v>322.728733</v>
+        <v>0.5939209999999999</v>
       </c>
       <c r="I4">
-        <v>0.4573526774733012</v>
+        <v>0.001485174276250702</v>
       </c>
       <c r="J4">
-        <v>0.4573526774733012</v>
+        <v>0.001485174276250702</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>15520.32562486665</v>
+        <v>32.86234777704333</v>
       </c>
       <c r="R4">
-        <v>139682.9306237999</v>
+        <v>295.7611299933899</v>
       </c>
       <c r="S4">
-        <v>0.1399077418131932</v>
+        <v>0.0004376236873397562</v>
       </c>
       <c r="T4">
-        <v>0.1399077418131932</v>
+        <v>0.0004376236873397562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>107.5762443333333</v>
+        <v>0.1979736666666666</v>
       </c>
       <c r="H5">
-        <v>322.728733</v>
+        <v>0.5939209999999999</v>
       </c>
       <c r="I5">
-        <v>0.4573526774733012</v>
+        <v>0.001485174276250702</v>
       </c>
       <c r="J5">
-        <v>0.4573526774733012</v>
+        <v>0.001485174276250702</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>7035.067549222065</v>
+        <v>13.11114942732922</v>
       </c>
       <c r="R5">
-        <v>63315.60794299858</v>
+        <v>118.000344845963</v>
       </c>
       <c r="S5">
-        <v>0.06341751056678559</v>
+        <v>0.0001745995020373611</v>
       </c>
       <c r="T5">
-        <v>0.06341751056678559</v>
+        <v>0.0001745995020373611</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.923847</v>
       </c>
       <c r="I6">
-        <v>0.001309223058938718</v>
+        <v>0.002310195799763575</v>
       </c>
       <c r="J6">
-        <v>0.001309223058938718</v>
+        <v>0.002310195799763576</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>30.470544709076</v>
+        <v>51.76925321747266</v>
       </c>
       <c r="R6">
-        <v>274.234902381684</v>
+        <v>465.923278957254</v>
       </c>
       <c r="S6">
-        <v>0.0002746762667939443</v>
+        <v>0.0006894045318235709</v>
       </c>
       <c r="T6">
-        <v>0.0002746762667939443</v>
+        <v>0.0006894045318235711</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.923847</v>
       </c>
       <c r="I7">
-        <v>0.001309223058938718</v>
+        <v>0.002310195799763575</v>
       </c>
       <c r="J7">
-        <v>0.001309223058938718</v>
+        <v>0.002310195799763576</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>50.19760726731433</v>
@@ -883,10 +883,10 @@
         <v>451.778465405829</v>
       </c>
       <c r="S7">
-        <v>0.0004525055753948346</v>
+        <v>0.0006684751234755359</v>
       </c>
       <c r="T7">
-        <v>0.0004525055753948347</v>
+        <v>0.000668475123475536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.923847</v>
       </c>
       <c r="I8">
-        <v>0.001309223058938718</v>
+        <v>0.002310195799763575</v>
       </c>
       <c r="J8">
-        <v>0.001309223058938718</v>
+        <v>0.002310195799763576</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>44.42866346070333</v>
+        <v>51.11754156996999</v>
       </c>
       <c r="R8">
-        <v>399.85797114633</v>
+        <v>460.05787412973</v>
       </c>
       <c r="S8">
-        <v>0.0004005015182546297</v>
+        <v>0.0006807257710668115</v>
       </c>
       <c r="T8">
-        <v>0.0004005015182546298</v>
+        <v>0.0006807257710668116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.923847</v>
       </c>
       <c r="I9">
-        <v>0.001309223058938718</v>
+        <v>0.002310195799763575</v>
       </c>
       <c r="J9">
-        <v>0.001309223058938718</v>
+        <v>0.002310195799763576</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>20.13866565189334</v>
+        <v>20.39445661121567</v>
       </c>
       <c r="R9">
-        <v>181.24799086704</v>
+        <v>183.550109500941</v>
       </c>
       <c r="S9">
-        <v>0.0001815396984953092</v>
+        <v>0.0002715903733976572</v>
       </c>
       <c r="T9">
-        <v>0.0001815396984953093</v>
+        <v>0.0002715903733976573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1050823333333333</v>
+        <v>0.1138773333333333</v>
       </c>
       <c r="H10">
-        <v>0.315247</v>
+        <v>0.341632</v>
       </c>
       <c r="I10">
-        <v>0.0004467499939505719</v>
+        <v>0.0008542938511082786</v>
       </c>
       <c r="J10">
-        <v>0.000446749993950572</v>
+        <v>0.0008542938511082786</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>10.39755263360933</v>
+        <v>19.14389884384711</v>
       </c>
       <c r="R10">
-        <v>93.577973702484</v>
+        <v>172.295089594624</v>
       </c>
       <c r="S10">
-        <v>9.372858176515219E-05</v>
+        <v>0.00025493685536236</v>
       </c>
       <c r="T10">
-        <v>9.372858176515221E-05</v>
+        <v>0.00025493685536236</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1050823333333333</v>
+        <v>0.1138773333333333</v>
       </c>
       <c r="H11">
-        <v>0.315247</v>
+        <v>0.341632</v>
       </c>
       <c r="I11">
-        <v>0.0004467499939505719</v>
+        <v>0.0008542938511082786</v>
       </c>
       <c r="J11">
-        <v>0.000446749993950572</v>
+        <v>0.0008542938511082786</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>17.12907559173656</v>
+        <v>18.56271543442489</v>
       </c>
       <c r="R11">
-        <v>154.161680325629</v>
+        <v>167.064438909824</v>
       </c>
       <c r="S11">
-        <v>0.0001544097941829063</v>
+        <v>0.0002471973101424741</v>
       </c>
       <c r="T11">
-        <v>0.0001544097941829063</v>
+        <v>0.0002471973101424741</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1050823333333333</v>
+        <v>0.1138773333333333</v>
       </c>
       <c r="H12">
-        <v>0.315247</v>
+        <v>0.341632</v>
       </c>
       <c r="I12">
-        <v>0.0004467499939505719</v>
+        <v>0.0008542938511082786</v>
       </c>
       <c r="J12">
-        <v>0.000446749993950572</v>
+        <v>0.0008542938511082786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>15.16052211025889</v>
+        <v>18.90290054698666</v>
       </c>
       <c r="R12">
-        <v>136.44469899233</v>
+        <v>170.12610492288</v>
       </c>
       <c r="S12">
-        <v>0.0001366642984446746</v>
+        <v>0.0002517275118294446</v>
       </c>
       <c r="T12">
-        <v>0.0001366642984446746</v>
+        <v>0.0002517275118294446</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1050823333333333</v>
+        <v>0.1138773333333333</v>
       </c>
       <c r="H13">
-        <v>0.315247</v>
+        <v>0.341632</v>
       </c>
       <c r="I13">
-        <v>0.0004467499939505719</v>
+        <v>0.0008542938511082786</v>
       </c>
       <c r="J13">
-        <v>0.000446749993950572</v>
+        <v>0.0008542938511082786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>6.87197547944889</v>
+        <v>7.541723901255112</v>
       </c>
       <c r="R13">
-        <v>61.84777931504001</v>
+        <v>67.875515111296</v>
       </c>
       <c r="S13">
-        <v>6.194731955783884E-05</v>
+        <v>0.0001004321737739998</v>
       </c>
       <c r="T13">
-        <v>6.194731955783887E-05</v>
+        <v>0.0001004321737739998</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>127.2257993333333</v>
+        <v>132.6801566666667</v>
       </c>
       <c r="H14">
-        <v>381.677398</v>
+        <v>398.04047</v>
       </c>
       <c r="I14">
-        <v>0.5408913494738096</v>
+        <v>0.9953503360728775</v>
       </c>
       <c r="J14">
-        <v>0.5408913494738096</v>
+        <v>0.9953503360728775</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>12588.57605231472</v>
+        <v>22304.83822779295</v>
       </c>
       <c r="R14">
-        <v>113297.1844708324</v>
+        <v>200743.5440501366</v>
       </c>
       <c r="S14">
-        <v>0.1134795294050492</v>
+        <v>0.2970306813435387</v>
       </c>
       <c r="T14">
-        <v>0.1134795294050492</v>
+        <v>0.2970306813435387</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>127.2257993333333</v>
+        <v>132.6801566666667</v>
       </c>
       <c r="H15">
-        <v>381.677398</v>
+        <v>398.04047</v>
       </c>
       <c r="I15">
-        <v>0.5408913494738096</v>
+        <v>0.9953503360728775</v>
       </c>
       <c r="J15">
-        <v>0.5408913494738096</v>
+        <v>0.9953503360728775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>20738.59862900938</v>
+        <v>21627.69288589692</v>
       </c>
       <c r="R15">
-        <v>186647.3876610844</v>
+        <v>194649.2359730723</v>
       </c>
       <c r="S15">
-        <v>0.1869477852904142</v>
+        <v>0.2880132233275752</v>
       </c>
       <c r="T15">
-        <v>0.1869477852904143</v>
+        <v>0.2880132233275752</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>127.2257993333333</v>
+        <v>132.6801566666667</v>
       </c>
       <c r="H16">
-        <v>381.677398</v>
+        <v>398.04047</v>
       </c>
       <c r="I16">
-        <v>0.5408913494738096</v>
+        <v>0.9953503360728775</v>
       </c>
       <c r="J16">
-        <v>0.5408913494738096</v>
+        <v>0.9953503360728775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>18355.22187797213</v>
+        <v>22024.04756605304</v>
       </c>
       <c r="R16">
-        <v>165196.9969017492</v>
+        <v>198216.4280944773</v>
       </c>
       <c r="S16">
-        <v>0.1654628714305254</v>
+        <v>0.293291427970807</v>
       </c>
       <c r="T16">
-        <v>0.1654628714305254</v>
+        <v>0.293291427970807</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>127.2257993333333</v>
+        <v>132.6801566666667</v>
       </c>
       <c r="H17">
-        <v>381.677398</v>
+        <v>398.04047</v>
       </c>
       <c r="I17">
-        <v>0.5408913494738096</v>
+        <v>0.9953503360728775</v>
       </c>
       <c r="J17">
-        <v>0.5408913494738096</v>
+        <v>0.9953503360728775</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>8320.071943954597</v>
+        <v>8786.973486868381</v>
       </c>
       <c r="R17">
-        <v>74880.64749559137</v>
+        <v>79082.76138181542</v>
       </c>
       <c r="S17">
-        <v>0.07500116334782073</v>
+        <v>0.1170150034309567</v>
       </c>
       <c r="T17">
-        <v>0.07500116334782074</v>
+        <v>0.1170150034309567</v>
       </c>
     </row>
   </sheetData>
